--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\WorkSpace\0. PTITHCM\1. T.Tru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Sneaker_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D08D03-06C8-4D1B-8A73-69CAA8361F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF93C2A-3507-49C1-9AA1-594FF7F13E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,30 +251,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -689,293 +708,295 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="B4" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="1">
         <v>1.2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="B6" s="1">
         <v>1.3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="B7" s="1">
         <v>1.4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="5">
         <v>2.1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+      <c r="B10" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="5">
         <v>2.4</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="5">
         <v>3.1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
+      <c r="F14" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="5">
         <v>3.2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="5">
         <v>3.3</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
+      <c r="B17" s="5">
         <v>3.4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="2:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+      <c r="B18" s="5">
         <v>3.5</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+      <c r="B19" s="5">
         <v>3.6</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+      <c r="B20" s="5">
         <v>3.7</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Sneaker_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF93C2A-3507-49C1-9AA1-594FF7F13E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3D32E6-9EE3-49C4-BC02-1B64EDD20A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Để trống</t>
   </si>
   <si>
-    <t>Sai username, mật khẩu</t>
-  </si>
-  <si>
     <t>Đăng nhập đúng</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Đúng bản thiết kế</t>
   </si>
   <si>
-    <t>Đã fix</t>
-  </si>
-  <si>
     <t>Đã fix hiển thị thông báo</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>Thông báo yêu cầu nhập</t>
   </si>
   <si>
-    <t>Thông báo lỗi email đã tồn tại trong hệ thống</t>
-  </si>
-  <si>
     <t>Đăng ký đúng</t>
   </si>
   <si>
@@ -100,23 +91,13 @@
     <t>(Tran Vy, vytt5, 123)</t>
   </si>
   <si>
-    <t>Chuyển về trang quản lý nhân viên</t>
-  </si>
-  <si>
     <t>Chỉnh sửa thông tin cá nhân</t>
   </si>
   <si>
     <t>Lấy thông tin trước khi chỉnh sửa</t>
   </si>
   <si>
-    <t>Nhập số điện thoại không đủ 10 chữ số</t>
-  </si>
-  <si>
     <t>123456789</t>
-  </si>
-  <si>
-    <t>- Thông báo lỗi số điện thoại phải có 10 chữ số
-- Yêu cầu nhập lại</t>
   </si>
   <si>
     <t>Nhập số CCCD không đủ 12 chữ số</t>
@@ -157,6 +138,245 @@
   <si>
     <t>- Thông báo cập nhật thông tin thành công
 - Hiển thị các thông tin đã chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm</t>
+  </si>
+  <si>
+    <t>- Thông báo yêu cầu nhập</t>
+  </si>
+  <si>
+    <t>sneaker.jpg</t>
+  </si>
+  <si>
+    <t>- Hiển thị hình ảnh phía dưới phần choose image</t>
+  </si>
+  <si>
+    <t>Chọn ảnh không phải định dạng file ảnh</t>
+  </si>
+  <si>
+    <t>Chọn file đuôi định dạng ảnh sản phẩm (chọn 1 hoặc nhiều ảnh)</t>
+  </si>
+  <si>
+    <t>1.txt</t>
+  </si>
+  <si>
+    <t>- Không hiển thị hình ảnh</t>
+  </si>
+  <si>
+    <t>Nhập tên sản phẩm</t>
+  </si>
+  <si>
+    <t>"AF1", "Test"</t>
+  </si>
+  <si>
+    <t>- Thông báo lỗi khi tên sản phẩm trùng
+- Yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t>Chọn thương hiệu của sản phẩm</t>
+  </si>
+  <si>
+    <t>"Nike", "Adidas"</t>
+  </si>
+  <si>
+    <t>- Dữ liệu của bảng Brand hiển thị chọn</t>
+  </si>
+  <si>
+    <t>Chọn loại của sản phẩm</t>
+  </si>
+  <si>
+    <t>"Running"</t>
+  </si>
+  <si>
+    <t>- Dữ liệu của bảng Category được hiển thị</t>
+  </si>
+  <si>
+    <t>Nhập mô tả sản phẩm</t>
+  </si>
+  <si>
+    <t>"Mô tả về sản phẩm"</t>
+  </si>
+  <si>
+    <t>- Nhập đoạn text dài</t>
+  </si>
+  <si>
+    <t>Nhập giá bán sản phẩm</t>
+  </si>
+  <si>
+    <t>"abc","123"</t>
+  </si>
+  <si>
+    <t>- Không thể nhập chữ, chỉ có thể nhập số</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>Nhập đúng tất cả các thông tin</t>
+  </si>
+  <si>
+    <t>"Test3, Adidas, Running, 200, Mô tả sp"</t>
+  </si>
+  <si>
+    <t>- Thông báo create new product success</t>
+  </si>
+  <si>
+    <t>Nhập tên nhân viên</t>
+  </si>
+  <si>
+    <t>Tran Vy</t>
+  </si>
+  <si>
+    <t>- Thông báo lỗi username đã tồn tại trong hệ thống
+- Yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t>Nhập password</t>
+  </si>
+  <si>
+    <t>"123"</t>
+  </si>
+  <si>
+    <t>- Password được hiển thị dưới dạng ẩn</t>
+  </si>
+  <si>
+    <t>- Thông báo tạo tài khoản thành công
+- Chuyển về trang quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>Tạo nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Nhập số điện thoại nhà cung cấp không đủ 10 chữ số và không bắt đầu bằng 0</t>
+  </si>
+  <si>
+    <t>123456789, 0123</t>
+  </si>
+  <si>
+    <t>- Thông báo lỗi số điện thoại phải có 10 chữ số và bắt đầu bằng 0
+- Yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t>Sai username hoặc sai mật khẩu</t>
+  </si>
+  <si>
+    <t>Nhập số điện thoại không đủ 10 chữ số và không bắt đầu bằng 0</t>
+  </si>
+  <si>
+    <t>- Thông báo lỗi số điện thoại phải có 10 chữ số và phải bắt đầu bằng 0
+- Yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t>Nhập tên nhà cung cấp đã tồn tại</t>
+  </si>
+  <si>
+    <t>Ananas</t>
+  </si>
+  <si>
+    <t>Nhập địa chỉ nhà cung cấp</t>
+  </si>
+  <si>
+    <t>99 Man Thiện</t>
+  </si>
+  <si>
+    <t>('Bom","99 Man Thiện","0373162586")</t>
+  </si>
+  <si>
+    <t>Tạo mã khuyến mãi</t>
+  </si>
+  <si>
+    <t>Nhập giá trị value không phải số</t>
+  </si>
+  <si>
+    <t>"avc"</t>
+  </si>
+  <si>
+    <t>- Giao diện không hiển thị</t>
+  </si>
+  <si>
+    <t>Nhập giá trị value là số trong khoảng 0 =&gt; 100</t>
+  </si>
+  <si>
+    <t>-1, 101</t>
+  </si>
+  <si>
+    <t>Chọn thể loại discount</t>
+  </si>
+  <si>
+    <t>Discount $, Discount %</t>
+  </si>
+  <si>
+    <t>Chọn ngày hoặc nhập ngày quá khứ hoặc hôm nay</t>
+  </si>
+  <si>
+    <t>25/10/2023, 15/10/2023</t>
+  </si>
+  <si>
+    <t>- Thông báo lỗi tên nhà cung cấp đã tồn tại
+- Yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t>- Thông báo date Không hợp lệ
+- Yêu cầu chọn lại</t>
+  </si>
+  <si>
+    <t>Tạo loại sản phẩm</t>
+  </si>
+  <si>
+    <t>"Adidas"</t>
+  </si>
+  <si>
+    <t>Nhập tên loại sản phẩm trùng</t>
+  </si>
+  <si>
+    <t>- Thông báo tên loại sản phẩm trùng
+- Yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn loại sản phẩm cha </t>
+  </si>
+  <si>
+    <t>Dữ liệu đúng</t>
+  </si>
+  <si>
+    <t>"15, Discount $, 30/10/2023"</t>
+  </si>
+  <si>
+    <t>- Thông báo tạo mã khuyến mãi thành công
+- Chuyển người dùng về trang quản lý khuyến mãi</t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>Nhập đúng dữ liệu</t>
+  </si>
+  <si>
+    <t>"Gym, Adidas"</t>
+  </si>
+  <si>
+    <t>- Thông báo tạo category thành công</t>
+  </si>
+  <si>
+    <t>Tạo thương hiệu sản phẩm</t>
+  </si>
+  <si>
+    <t>- Thông báo lỗi giá trị không xác định giá trị value nằm trong [0,100]
+- Yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t>Nhập tên thương hiệu sản phẩm trùng</t>
+  </si>
+  <si>
+    <t>- Thông báo tên thương hiệu sản phẩm trùng
+- Yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t>"Bom, Hợp đồng, link"</t>
+  </si>
+  <si>
+    <t>- Thông báo tạo brand thành công</t>
   </si>
 </sst>
 </file>
@@ -172,18 +392,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="163"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -193,11 +402,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -209,18 +430,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,56 +464,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -706,300 +943,1355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="6.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="9.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
+    <row r="3" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="9">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="9">
+        <v>6</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="9">
+        <v>7</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="9">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="C55" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="2:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="2:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="2:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="2:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="11"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>CASE</t>
   </si>
@@ -41,6 +41,13 @@
   </si>
   <si>
     <t>Đã fix hiển thị thông báo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thông báo lỗi khi nhập số
+- Không cho nhập khoảng trắng </t>
   </si>
   <si>
     <t>Sai username hoặc sai mật khẩu</t>
@@ -98,7 +105,8 @@
     <t>"123"</t>
   </si>
   <si>
-    <t>- Password được hiển thị dưới dạng ẩn</t>
+    <t>- Password được hiển thị dưới dạng ẩn
+- Password phải ít nhất 6 ký tự</t>
   </si>
   <si>
     <t>Đăng ký đúng</t>
@@ -383,7 +391,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -564,15 +572,8 @@
       <name val="Arial"/>
       <charset val="163"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,12 +733,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,30 +1042,30 @@
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
@@ -1566,10 +1561,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -1645,11 +1640,9 @@
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -1659,13 +1652,13 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -1675,62 +1668,64 @@
         <v>1.4</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" ht="60.6" customHeight="1" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" ht="60.6" customHeight="1" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" ht="60.6" customHeight="1" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="5">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" ht="60.6" customHeight="1" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="5">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>22</v>
@@ -1738,727 +1733,725 @@
       <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" ht="60.6" customHeight="1" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="5">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" ht="60.6" customHeight="1" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" ht="60.6" customHeight="1" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="5">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" ht="60.6" customHeight="1" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="5">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" ht="60.6" customHeight="1" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" ht="60.6" customHeight="1" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="5">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" ht="60.6" customHeight="1" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="5">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" ht="60.6" customHeight="1" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="5">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" ht="60.6" customHeight="1" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" ht="60.6" customHeight="1" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" ht="60.6" customHeight="1" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="5">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" ht="60.6" customHeight="1" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="5">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" ht="60.6" customHeight="1" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="5">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" ht="60.6" customHeight="1" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="5">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" ht="60.6" customHeight="1" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="5">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" ht="60.6" customHeight="1" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="5">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" ht="60.6" customHeight="1" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="5">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" ht="60.6" customHeight="1" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="5">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" ht="60.6" customHeight="1" spans="1:6">
       <c r="A30" s="4"/>
       <c r="B30" s="5">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" ht="60.6" customHeight="1" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="5">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" ht="60.6" customHeight="1" spans="1:6">
       <c r="A32" s="4"/>
       <c r="B32" s="5">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" ht="60.6" customHeight="1" spans="1:6">
       <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="5">
+        <v>4.9</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E33" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" ht="60.6" customHeight="1" spans="1:6">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" ht="32.4" customHeight="1" spans="1:6">
-      <c r="A34" s="4"/>
-      <c r="B34" s="9">
+      <c r="D34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" ht="32.4" customHeight="1" spans="1:6">
+      <c r="A35" s="4"/>
+      <c r="B35" s="9">
         <v>5</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" ht="46.2" customHeight="1" spans="1:6">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5">
-        <v>5.1</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" ht="60.6" customHeight="1" spans="1:6">
+      <c r="C35" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" ht="46.2" customHeight="1" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="5">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" ht="51" customHeight="1" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="60.6" customHeight="1" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="5">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" ht="52.8" customHeight="1" spans="1:6">
+    <row r="38" ht="51" customHeight="1" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="5">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" ht="82.2" customHeight="1" spans="1:6">
+    <row r="39" ht="52.8" customHeight="1" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="5">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" ht="39.6" customHeight="1" spans="1:6">
+    <row r="40" ht="82.2" customHeight="1" spans="1:6">
       <c r="A40" s="4"/>
       <c r="B40" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" ht="39.6" customHeight="1" spans="1:6">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5">
         <v>5.7</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" ht="32.4" customHeight="1" spans="1:6">
-      <c r="A41" s="4"/>
-      <c r="B41" s="9">
+      <c r="D41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" ht="32.4" customHeight="1" spans="1:6">
+      <c r="A42" s="4"/>
+      <c r="B42" s="9">
         <v>6</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" ht="82.2" customHeight="1" spans="1:6">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" ht="82.2" customHeight="1" spans="1:6">
       <c r="A43" s="4"/>
       <c r="B43" s="5">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="44" ht="82.2" customHeight="1" spans="1:6">
       <c r="A44" s="4"/>
       <c r="B44" s="5">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" ht="82.2" customHeight="1" spans="1:6">
       <c r="A45" s="4"/>
       <c r="B45" s="5">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" ht="82.2" customHeight="1" spans="1:6">
       <c r="A46" s="4"/>
       <c r="B46" s="5">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" ht="82.2" customHeight="1" spans="1:6">
       <c r="A47" s="4"/>
       <c r="B47" s="5">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="C47" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" ht="82.2" customHeight="1" spans="1:6">
       <c r="A48" s="4"/>
       <c r="B48" s="5">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>17</v>
+        <v>99</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" ht="82.2" customHeight="1" spans="1:6">
       <c r="A49" s="4"/>
-      <c r="B49" s="9">
-        <v>7</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="B49" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" ht="82.2" customHeight="1" spans="1:6">
       <c r="A50" s="4"/>
-      <c r="B50" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B50" s="9">
+        <v>7</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" ht="82.2" customHeight="1" spans="1:6">
       <c r="A51" s="4"/>
       <c r="B51" s="5">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" ht="82.2" customHeight="1" spans="1:6">
       <c r="A52" s="4"/>
       <c r="B52" s="5">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="C52" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="E52" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" ht="82.2" customHeight="1" spans="1:6">
       <c r="A53" s="4"/>
       <c r="B53" s="5">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>108</v>
-      </c>
+      <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
     <row r="54" ht="82.2" customHeight="1" spans="1:6">
       <c r="A54" s="4"/>
       <c r="B54" s="5">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>17</v>
+        <v>109</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" ht="82.2" customHeight="1" spans="1:6">
       <c r="A55" s="4"/>
-      <c r="B55" s="9">
-        <v>8</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="B55" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" ht="82.2" customHeight="1" spans="1:6">
       <c r="A56" s="4"/>
-      <c r="B56" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="B56" s="9">
         <v>8</v>
       </c>
+      <c r="C56" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" ht="82.2" customHeight="1" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" s="5">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" ht="82.2" customHeight="1" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" s="5">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>113</v>
@@ -2468,25 +2461,33 @@
     <row r="59" ht="82.2" customHeight="1" spans="1:6">
       <c r="A59" s="4"/>
       <c r="B59" s="5">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>17</v>
+        <v>114</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" ht="82.2" customHeight="1" spans="1:6">
       <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="B60" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" ht="82.2" customHeight="1" spans="1:6">
@@ -2585,7 +2586,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" customHeight="1" spans="1:6">
+    <row r="73" ht="82.2" customHeight="1" spans="1:6">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -2913,6 +2914,14 @@
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
+    <row r="114" customHeight="1" spans="1:6">
+      <c r="A114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Sneaker_Website\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE62A4F2-87B2-4308-9C9D-5E0FAE09EE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" windowWidth="22188" windowHeight="9024"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
   <si>
     <t>CASE</t>
   </si>
@@ -379,19 +385,16 @@
   </si>
   <si>
     <t>- Thông báo tạo brand thành công</t>
+  </si>
+  <si>
+    <t>check trùng khoảng thời gian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -424,156 +427,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="163"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,198 +453,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -818,257 +515,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1088,80 +543,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal 2" xfId="49"/>
-    <cellStyle name="Normal 2 2" xfId="50"/>
-    <cellStyle name="Normal 3" xfId="51"/>
-    <cellStyle name="Normal 6" xfId="52"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1234,6 +654,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1555,30 +978,30 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1"/>
-    <col min="2" max="2" width="9.77777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.7777777777778" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.1111111111111" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.3333333333333" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.6" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="60.6" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -1586,53 +1009,53 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" ht="60.6" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="60.6" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="60.6" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="60.6" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="5">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" ht="60.6" customHeight="1" spans="1:6">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="60.6" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="60.6" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="60.6" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>1.2</v>
@@ -1641,12 +1064,12 @@
         <v>9</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" ht="60.6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="60.6" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5">
         <v>1.3</v>
@@ -1657,12 +1080,12 @@
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" ht="60.6" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="60.6" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="5">
         <v>1.4</v>
@@ -1673,12 +1096,12 @@
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" ht="60.6" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="60.6" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <v>1.5</v>
@@ -1689,24 +1112,24 @@
       <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" ht="60.6" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="60.6" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="5">
+      <c r="B9" s="15">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" ht="60.6" customHeight="1" spans="1:6">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="60.6" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5">
         <v>2.1</v>
@@ -1715,17 +1138,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="60.6" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="60.6" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>22</v>
@@ -1736,10 +1159,10 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" ht="60.6" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="60.6" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>24</v>
@@ -1747,12 +1170,12 @@
       <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" ht="60.6" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="60.6" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
         <v>2.4</v>
@@ -1763,12 +1186,12 @@
       <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" ht="60.6" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="60.6" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="5">
         <v>2.5</v>
@@ -1779,12 +1202,12 @@
       <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" ht="60.6" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="60.6" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="5">
         <v>2.6</v>
@@ -1795,24 +1218,24 @@
       <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" ht="60.6" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="60.6" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="5">
+      <c r="B16" s="15">
         <v>3</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" ht="60.6" customHeight="1" spans="1:6">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="60.6" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="5">
         <v>3.1</v>
@@ -1821,14 +1244,14 @@
         <v>21</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="60.6" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="60.6" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5">
         <v>3.2</v>
@@ -1839,12 +1262,12 @@
       <c r="D18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" ht="60.6" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="60.6" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="5">
         <v>3.3</v>
@@ -1855,12 +1278,12 @@
       <c r="D19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" ht="60.6" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="60.6" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5">
         <v>3.4</v>
@@ -1871,12 +1294,12 @@
       <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" ht="60.6" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="60.6" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="5">
         <v>3.5</v>
@@ -1887,12 +1310,12 @@
       <c r="D21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" ht="60.6" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="60.6" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="5">
         <v>3.6</v>
@@ -1903,12 +1326,12 @@
       <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" ht="60.6" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="60.6" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="5">
         <v>3.7</v>
@@ -1919,40 +1342,40 @@
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" ht="60.6" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="60.6" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="5">
+      <c r="B24" s="15">
         <v>4</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" ht="60.6" customHeight="1" spans="1:6">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="60.6" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="5">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" ht="60.6" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="60.6" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="5">
         <v>4.2</v>
@@ -1963,12 +1386,12 @@
       <c r="D26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" ht="60.6" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="60.6" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="5">
         <v>4.3</v>
@@ -1979,15 +1402,15 @@
       <c r="D27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" ht="60.6" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="60.6" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="5">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>58</v>
@@ -1995,12 +1418,12 @@
       <c r="D28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" ht="60.6" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="60.6" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5">
         <v>4.5</v>
@@ -2011,15 +1434,15 @@
       <c r="D29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" ht="60.6" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="60.6" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="5">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>64</v>
@@ -2027,12 +1450,12 @@
       <c r="D30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="9" t="s">
         <v>66</v>
       </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" ht="60.6" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="60.6" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="5">
         <v>4.7</v>
@@ -2043,12 +1466,12 @@
       <c r="D31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" ht="60.6" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="60.6" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="5">
         <v>4.8</v>
@@ -2059,15 +1482,15 @@
       <c r="D32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" ht="60.6" customHeight="1" spans="1:6">
+    <row r="33" spans="1:7" ht="60.6" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="5">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>73</v>
@@ -2075,12 +1498,12 @@
       <c r="D33" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" ht="60.6" customHeight="1" spans="1:6">
+    <row r="34" spans="1:7" ht="60.6" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>76</v>
@@ -2091,27 +1514,27 @@
       <c r="D34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" ht="32.4" customHeight="1" spans="1:6">
+    <row r="35" spans="1:7" ht="32.4" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>5</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" ht="46.2" customHeight="1" spans="1:6">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="46.2" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="5">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>21</v>
@@ -2124,7 +1547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" ht="60.6" customHeight="1" spans="1:6">
+    <row r="37" spans="1:7" ht="60.6" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="5">
         <v>5.2</v>
@@ -2135,12 +1558,12 @@
       <c r="D37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="9" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" ht="51" customHeight="1" spans="1:6">
+    <row r="38" spans="1:7" ht="51" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="5">
         <v>5.3</v>
@@ -2151,12 +1574,12 @@
       <c r="D38" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="9" t="s">
         <v>83</v>
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" ht="52.8" customHeight="1" spans="1:6">
+    <row r="39" spans="1:7" ht="52.8" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5">
         <v>5.4</v>
@@ -2170,7 +1593,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" ht="82.2" customHeight="1" spans="1:6">
+    <row r="40" spans="1:7" ht="82.2" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="5">
         <v>5.6</v>
@@ -2186,7 +1609,7 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" ht="39.6" customHeight="1" spans="1:6">
+    <row r="41" spans="1:7" ht="39.6" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="5">
         <v>5.7</v>
@@ -2202,19 +1625,19 @@
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" ht="32.4" customHeight="1" spans="1:6">
+    <row r="42" spans="1:7" ht="32.4" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="9">
+      <c r="B42" s="7">
         <v>6</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" ht="82.2" customHeight="1" spans="1:6">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="82.2" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="5">
         <v>6.1</v>
@@ -2230,7 +1653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" ht="82.2" customHeight="1" spans="1:6">
+    <row r="44" spans="1:7" ht="82.2" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="5">
         <v>6.2</v>
@@ -2241,12 +1664,12 @@
       <c r="D44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" ht="82.2" customHeight="1" spans="1:6">
+    <row r="45" spans="1:7" ht="82.2" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="5">
         <v>6.3</v>
@@ -2254,15 +1677,15 @@
       <c r="C45" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" ht="82.2" customHeight="1" spans="1:6">
+    <row r="46" spans="1:7" ht="82.2" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="5">
         <v>6.4</v>
@@ -2275,8 +1698,11 @@
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-    </row>
-    <row r="47" ht="82.2" customHeight="1" spans="1:6">
+      <c r="G46" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="82.2" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="5">
         <v>6.5</v>
@@ -2284,15 +1710,15 @@
       <c r="C47" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="6" t="s">
         <v>98</v>
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" ht="82.2" customHeight="1" spans="1:6">
+    <row r="48" spans="1:7" ht="82.2" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="5">
         <v>6.6</v>
@@ -2300,15 +1726,15 @@
       <c r="C48" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" ht="82.2" customHeight="1" spans="1:6">
+    <row r="49" spans="1:6" ht="82.2" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="5">
         <v>6.7</v>
@@ -2324,19 +1750,19 @@
       </c>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" ht="82.2" customHeight="1" spans="1:6">
+    <row r="50" spans="1:6" ht="82.2" customHeight="1">
       <c r="A50" s="4"/>
-      <c r="B50" s="9">
+      <c r="B50" s="15">
         <v>7</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" ht="82.2" customHeight="1" spans="1:6">
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" ht="82.2" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5">
         <v>7.1</v>
@@ -2352,7 +1778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" ht="82.2" customHeight="1" spans="1:6">
+    <row r="52" spans="1:6" ht="82.2" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="5">
         <v>7.2</v>
@@ -2363,12 +1789,12 @@
       <c r="D52" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="6" t="s">
         <v>105</v>
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" ht="82.2" customHeight="1" spans="1:6">
+    <row r="53" spans="1:6" ht="82.2" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="5">
         <v>7.3</v>
@@ -2376,13 +1802,13 @@
       <c r="C53" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="6" t="s">
         <v>107</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" ht="82.2" customHeight="1" spans="1:6">
+    <row r="54" spans="1:6" ht="82.2" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="5">
         <v>7.4</v>
@@ -2393,12 +1819,12 @@
       <c r="D54" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="6" t="s">
         <v>110</v>
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" ht="82.2" customHeight="1" spans="1:6">
+    <row r="55" spans="1:6" ht="82.2" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="5">
         <v>7.5</v>
@@ -2414,22 +1840,22 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" ht="82.2" customHeight="1" spans="1:6">
+    <row r="56" spans="1:6" ht="82.2" customHeight="1">
       <c r="A56" s="4"/>
-      <c r="B56" s="9">
+      <c r="B56" s="15">
         <v>8</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" ht="82.2" customHeight="1" spans="1:6">
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+    </row>
+    <row r="57" spans="1:6" ht="82.2" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="5">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>21</v>
@@ -2442,10 +1868,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" ht="82.2" customHeight="1" spans="1:6">
+    <row r="58" spans="1:6" ht="82.2" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="5">
-        <v>7.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>112</v>
@@ -2453,15 +1879,15 @@
       <c r="D58" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" ht="82.2" customHeight="1" spans="1:6">
+    <row r="59" spans="1:6" ht="82.2" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="5">
-        <v>7.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>108</v>
@@ -2469,15 +1895,15 @@
       <c r="D59" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="6" t="s">
         <v>115</v>
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" ht="82.2" customHeight="1" spans="1:6">
+    <row r="60" spans="1:6" ht="82.2" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="5">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>17</v>
@@ -2490,7 +1916,7 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" ht="82.2" customHeight="1" spans="1:6">
+    <row r="61" spans="1:6" ht="82.2" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -2498,7 +1924,7 @@
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" ht="82.2" customHeight="1" spans="1:6">
+    <row r="62" spans="1:6" ht="82.2" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -2506,7 +1932,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" ht="82.2" customHeight="1" spans="1:6">
+    <row r="63" spans="1:6" ht="82.2" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -2514,7 +1940,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" ht="82.2" customHeight="1" spans="1:6">
+    <row r="64" spans="1:6" ht="82.2" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -2522,7 +1948,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" ht="82.2" customHeight="1" spans="1:6">
+    <row r="65" spans="1:6" ht="82.2" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -2530,7 +1956,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" ht="82.2" customHeight="1" spans="1:6">
+    <row r="66" spans="1:6" ht="82.2" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -2538,7 +1964,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" ht="82.2" customHeight="1" spans="1:6">
+    <row r="67" spans="1:6" ht="82.2" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -2546,7 +1972,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" ht="82.2" customHeight="1" spans="1:6">
+    <row r="68" spans="1:6" ht="82.2" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -2554,7 +1980,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" ht="82.2" customHeight="1" spans="1:6">
+    <row r="69" spans="1:6" ht="82.2" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -2562,7 +1988,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" ht="82.2" customHeight="1" spans="1:6">
+    <row r="70" spans="1:6" ht="82.2" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -2570,7 +1996,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" ht="82.2" customHeight="1" spans="1:6">
+    <row r="71" spans="1:6" ht="82.2" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -2578,7 +2004,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" ht="82.2" customHeight="1" spans="1:6">
+    <row r="72" spans="1:6" ht="82.2" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -2586,7 +2012,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" ht="82.2" customHeight="1" spans="1:6">
+    <row r="73" spans="1:6" ht="82.2" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -2594,7 +2020,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" customHeight="1" spans="1:6">
+    <row r="74" spans="1:6" ht="16.5" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -2602,7 +2028,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" customHeight="1" spans="1:6">
+    <row r="75" spans="1:6" ht="16.5" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -2610,7 +2036,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" customHeight="1" spans="1:6">
+    <row r="76" spans="1:6" ht="16.5" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -2618,7 +2044,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" customHeight="1" spans="1:6">
+    <row r="77" spans="1:6" ht="16.5" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -2626,7 +2052,7 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" customHeight="1" spans="1:6">
+    <row r="78" spans="1:6" ht="16.5" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -2634,7 +2060,7 @@
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" customHeight="1" spans="1:6">
+    <row r="79" spans="1:6" ht="16.5" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -2642,7 +2068,7 @@
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" customHeight="1" spans="1:6">
+    <row r="80" spans="1:6" ht="16.5" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -2650,7 +2076,7 @@
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" customHeight="1" spans="1:6">
+    <row r="81" spans="1:6" ht="16.5" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -2658,7 +2084,7 @@
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" customHeight="1" spans="1:6">
+    <row r="82" spans="1:6" ht="16.5" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
@@ -2666,7 +2092,7 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" customHeight="1" spans="1:6">
+    <row r="83" spans="1:6" ht="16.5" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
@@ -2674,7 +2100,7 @@
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" customHeight="1" spans="1:6">
+    <row r="84" spans="1:6" ht="16.5" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -2682,7 +2108,7 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" customHeight="1" spans="1:6">
+    <row r="85" spans="1:6" ht="16.5" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
@@ -2690,7 +2116,7 @@
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" customHeight="1" spans="1:6">
+    <row r="86" spans="1:6" ht="16.5" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
@@ -2698,7 +2124,7 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" customHeight="1" spans="1:6">
+    <row r="87" spans="1:6" ht="16.5" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
@@ -2706,7 +2132,7 @@
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" customHeight="1" spans="1:6">
+    <row r="88" spans="1:6" ht="16.5" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
@@ -2714,7 +2140,7 @@
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" customHeight="1" spans="1:6">
+    <row r="89" spans="1:6" ht="16.5" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
@@ -2722,7 +2148,7 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" customHeight="1" spans="1:6">
+    <row r="90" spans="1:6" ht="16.5" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
@@ -2730,7 +2156,7 @@
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" customHeight="1" spans="1:6">
+    <row r="91" spans="1:6" ht="16.5" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
@@ -2738,7 +2164,7 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" customHeight="1" spans="1:6">
+    <row r="92" spans="1:6" ht="16.5" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
@@ -2746,7 +2172,7 @@
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" customHeight="1" spans="1:6">
+    <row r="93" spans="1:6" ht="16.5" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
@@ -2754,7 +2180,7 @@
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" customHeight="1" spans="1:6">
+    <row r="94" spans="1:6" ht="16.5" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
@@ -2762,7 +2188,7 @@
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" customHeight="1" spans="1:6">
+    <row r="95" spans="1:6" ht="16.5" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
@@ -2770,7 +2196,7 @@
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" customHeight="1" spans="1:6">
+    <row r="96" spans="1:6" ht="16.5" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
@@ -2778,7 +2204,7 @@
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" customHeight="1" spans="1:6">
+    <row r="97" spans="1:6" ht="16.5" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
@@ -2786,7 +2212,7 @@
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" customHeight="1" spans="1:6">
+    <row r="98" spans="1:6" ht="16.5" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
@@ -2794,7 +2220,7 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" customHeight="1" spans="1:6">
+    <row r="99" spans="1:6" ht="16.5" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
@@ -2802,7 +2228,7 @@
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" customHeight="1" spans="1:6">
+    <row r="100" spans="1:6" ht="16.5" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
@@ -2810,7 +2236,7 @@
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" customHeight="1" spans="1:6">
+    <row r="101" spans="1:6" ht="16.5" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
@@ -2818,7 +2244,7 @@
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" customHeight="1" spans="1:6">
+    <row r="102" spans="1:6" ht="16.5" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
@@ -2826,7 +2252,7 @@
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" customHeight="1" spans="1:6">
+    <row r="103" spans="1:6" ht="16.5" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
@@ -2834,7 +2260,7 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" customHeight="1" spans="1:6">
+    <row r="104" spans="1:6" ht="16.5" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
@@ -2842,7 +2268,7 @@
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" customHeight="1" spans="1:6">
+    <row r="105" spans="1:6" ht="16.5" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
@@ -2850,7 +2276,7 @@
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" customHeight="1" spans="1:6">
+    <row r="106" spans="1:6" ht="16.5" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
@@ -2858,7 +2284,7 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" customHeight="1" spans="1:6">
+    <row r="107" spans="1:6" ht="16.5" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
@@ -2866,7 +2292,7 @@
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" customHeight="1" spans="1:6">
+    <row r="108" spans="1:6" ht="16.5" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
@@ -2874,7 +2300,7 @@
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" customHeight="1" spans="1:6">
+    <row r="109" spans="1:6" ht="16.5" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
@@ -2882,7 +2308,7 @@
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
     </row>
-    <row r="110" customHeight="1" spans="1:6">
+    <row r="110" spans="1:6" ht="16.5" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
@@ -2890,7 +2316,7 @@
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" customHeight="1" spans="1:6">
+    <row r="111" spans="1:6" ht="16.5" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
@@ -2898,7 +2324,7 @@
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" customHeight="1" spans="1:6">
+    <row r="112" spans="1:6" ht="16.5" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
@@ -2906,7 +2332,7 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" customHeight="1" spans="1:6">
+    <row r="113" spans="1:6" ht="16.5" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
@@ -2914,7 +2340,7 @@
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" customHeight="1" spans="1:6">
+    <row r="114" spans="1:6" ht="16.5" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="6"/>
@@ -2925,6 +2351,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>